--- a/src/main/resources/newFileParsing.xlsx
+++ b/src/main/resources/newFileParsing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Minda Chunga</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>abrazafarolas</t>
   </si>
   <si>
-    <t>l;kasdfja</t>
-  </si>
-  <si>
     <t>last</t>
   </si>
   <si>
@@ -219,6 +213,15 @@
   </si>
   <si>
     <t>what</t>
+  </si>
+  <si>
+    <t>Another Last</t>
+  </si>
+  <si>
+    <t>Everything Pass</t>
+  </si>
+  <si>
+    <t>Except this</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -647,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -715,16 +718,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -732,39 +735,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -772,61 +775,81 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
       </c>
     </row>
